--- a/4.Analysis/Data/raw/day1/phase_009/select_day1_phase_009.xlsx
+++ b/4.Analysis/Data/raw/day1/phase_009/select_day1_phase_009.xlsx
@@ -1,103 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="212">
-  <si>
-    <t>USERID</t>
-  </si>
-  <si>
-    <t>X.1</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Subject.Name</t>
-  </si>
-  <si>
-    <t>Time_day1</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source.Details</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>ever_join_similar</t>
-  </si>
-  <si>
-    <t>ever_IAT</t>
-  </si>
-  <si>
-    <t>ever_AlT</t>
-  </si>
-  <si>
-    <t>ever_ques</t>
-  </si>
-  <si>
-    <t>Env_Q2_item4</t>
-  </si>
-  <si>
-    <t>join_interval</t>
-  </si>
-  <si>
-    <t>going_normal</t>
-  </si>
-  <si>
-    <t>full_screen</t>
-  </si>
-  <si>
-    <t>any_problem</t>
-  </si>
-  <si>
-    <t>distrub</t>
-  </si>
-  <si>
-    <t>when_disturb</t>
-  </si>
-  <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t>Eligible</t>
-  </si>
-  <si>
-    <t>Moneny</t>
-  </si>
-  <si>
-    <t>Paid_date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+  <si>
+    <t xml:space="preserve">USERID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_day1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_join_similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_IAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_AlT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_ques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Env_Q2_item4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any_problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	598897916660154368</t>
@@ -109,43 +107,43 @@
     <t xml:space="preserve">	2023-12-29 12:07:29</t>
   </si>
   <si>
-    <t>1小时4分</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>直接访问</t>
-  </si>
-  <si>
-    <t>119.188.112.218</t>
-  </si>
-  <si>
-    <t>问题反馈</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>-888</t>
-  </si>
-  <si>
-    <t>从无</t>
-  </si>
-  <si>
-    <t>G.从无</t>
-  </si>
-  <si>
-    <t>A.一切正常</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>-999</t>
-  </si>
-  <si>
-    <t>A.我没有受到任何干扰</t>
+    <t xml:space="preserve">1小时4分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接访问</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.188.112.218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问题反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一切正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
@@ -154,16 +152,16 @@
     <t xml:space="preserve">观察人的判断力	</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12.30</t>
-  </si>
-  <si>
-    <t>phase_009_subj_4</t>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_009_subj_4</t>
   </si>
   <si>
     <t xml:space="preserve">	598908778728914944</t>
@@ -175,13 +173,13 @@
     <t xml:space="preserve">	2023-12-29 14:00:51</t>
   </si>
   <si>
-    <t>1小时18分2秒</t>
-  </si>
-  <si>
-    <t>36.138.235.64</t>
-  </si>
-  <si>
-    <t>B.测试出现问题（例如报错、闪退、刺激显示不全）</t>
+    <t xml:space="preserve">1小时18分2秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.138.235.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.测试出现问题（例如报错、闪退、刺激显示不全）</t>
   </si>
   <si>
     <t xml:space="preserve">最后的问卷有一道题不需要按键但是我不小心按了，然后再点也取消不了按键，不是故意点错的不好意思，其他全过程都没有问题	</t>
@@ -190,7 +188,7 @@
     <t xml:space="preserve">目的是想了解人对自己的看法程度	</t>
   </si>
   <si>
-    <t>phase_009_subj_11</t>
+    <t xml:space="preserve">phase_009_subj_11</t>
   </si>
   <si>
     <t xml:space="preserve">	602287984867278848</t>
@@ -202,10 +200,10 @@
     <t xml:space="preserve">	2023-12-29 15:35:31</t>
   </si>
   <si>
-    <t>1小时11分19秒</t>
-  </si>
-  <si>
-    <t>139.214.193.42</t>
+    <t xml:space="preserve">1小时11分19秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.214.193.42</t>
   </si>
   <si>
     <t xml:space="preserve">没有	</t>
@@ -214,7 +212,7 @@
     <t xml:space="preserve">实验对自己朋友的评价认知	</t>
   </si>
   <si>
-    <t>phase_009_subj_19</t>
+    <t xml:space="preserve">phase_009_subj_19</t>
   </si>
   <si>
     <t xml:space="preserve">	653013422224441344</t>
@@ -226,16 +224,16 @@
     <t xml:space="preserve">	2023-12-30 21:36:58</t>
   </si>
   <si>
-    <t>1小时6分19秒</t>
-  </si>
-  <si>
-    <t>223.89.108.16</t>
-  </si>
-  <si>
-    <t>类似的问卷调查</t>
-  </si>
-  <si>
-    <t>E.半年内</t>
+    <t xml:space="preserve">1小时6分19秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.89.108.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类似的问卷调查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.半年内</t>
   </si>
   <si>
     <t xml:space="preserve">实验整体还是很不错的，就是对于最开始的指导语不是太明确	</t>
@@ -244,7 +242,7 @@
     <t xml:space="preserve">判断逻辑性和目力	</t>
   </si>
   <si>
-    <t>phase_009_subj_13</t>
+    <t xml:space="preserve">phase_009_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	718768648436580352</t>
@@ -256,16 +254,37 @@
     <t xml:space="preserve">	2023-12-29 20:35:42</t>
   </si>
   <si>
-    <t>47分35秒</t>
-  </si>
-  <si>
-    <t>183.47.127.23</t>
+    <t xml:space="preserve">47分35秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.47.127.23</t>
   </si>
   <si>
     <t xml:space="preserve">目的是测试反应能力，还有就是测试专注力	</t>
   </si>
   <si>
-    <t>phase_009_subj_16</t>
+    <t xml:space="preserve">phase_009_subj_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	718769387863015424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	海海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2023-12-29 14:05:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58分6秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.97.80.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">让自己自信	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_009_subj_17</t>
   </si>
   <si>
     <t xml:space="preserve">	732625560492314625</t>
@@ -277,16 +296,16 @@
     <t xml:space="preserve">	2023-12-29 14:34:54</t>
   </si>
   <si>
-    <t>46分58秒</t>
-  </si>
-  <si>
-    <t>182.125.99.204</t>
+    <t xml:space="preserve">46分58秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.125.99.204</t>
   </si>
   <si>
     <t xml:space="preserve">我觉得目的是看人们的反应能力，还有就是测试有没有耐心	</t>
   </si>
   <si>
-    <t>phase_009_subj_9</t>
+    <t xml:space="preserve">phase_009_subj_9</t>
   </si>
   <si>
     <t xml:space="preserve">	738059457485082626</t>
@@ -298,16 +317,16 @@
     <t xml:space="preserve">	2023-12-29 17:43:44</t>
   </si>
   <si>
-    <t>1小时6分3秒</t>
-  </si>
-  <si>
-    <t>61.161.6.239</t>
+    <t xml:space="preserve">1小时6分3秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.161.6.239</t>
   </si>
   <si>
     <t xml:space="preserve">研究人在辨别朋友之间关系有什么不同	</t>
   </si>
   <si>
-    <t>phase_009_subj_20</t>
+    <t xml:space="preserve">phase_009_subj_20</t>
   </si>
   <si>
     <t xml:space="preserve">	745687953166307329</t>
@@ -319,16 +338,16 @@
     <t xml:space="preserve">	2023-12-29 14:52:43</t>
   </si>
   <si>
-    <t>1小时15分24秒</t>
-  </si>
-  <si>
-    <t>218.28.159.170</t>
+    <t xml:space="preserve">1小时15分24秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218.28.159.170</t>
   </si>
   <si>
     <t xml:space="preserve">调查反应能力	</t>
   </si>
   <si>
-    <t>phase_009_subj_3</t>
+    <t xml:space="preserve">phase_009_subj_3</t>
   </si>
   <si>
     <t xml:space="preserve">	753301347197259777</t>
@@ -340,10 +359,10 @@
     <t xml:space="preserve">	2023-12-29 22:38:01</t>
   </si>
   <si>
-    <t>1小时5分25秒</t>
-  </si>
-  <si>
-    <t>117.132.58.81</t>
+    <t xml:space="preserve">1小时5分25秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.132.58.81</t>
   </si>
   <si>
     <t xml:space="preserve">实验非常的有意思，有一个消消的建议 判断图形的时间能不能稍微加长一点点，眼睛真的有点吃不消	</t>
@@ -352,7 +371,7 @@
     <t xml:space="preserve">判断人的反应能力及认识自己是怎么样的一个人	</t>
   </si>
   <si>
-    <t>phase_009_subj_8</t>
+    <t xml:space="preserve">phase_009_subj_8</t>
   </si>
   <si>
     <t xml:space="preserve">	756877432623206401</t>
@@ -364,16 +383,16 @@
     <t xml:space="preserve">	2023-12-29 22:44:30</t>
   </si>
   <si>
-    <t>1小时4分2秒</t>
-  </si>
-  <si>
-    <t>125.43.76.60</t>
+    <t xml:space="preserve">1小时4分2秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.43.76.60</t>
   </si>
   <si>
     <t xml:space="preserve">检测特定环境下自己的反应能力以及对自己的评估	</t>
   </si>
   <si>
-    <t>phase_009_subj_21</t>
+    <t xml:space="preserve">phase_009_subj_21</t>
   </si>
   <si>
     <t xml:space="preserve">	766374165644316674</t>
@@ -385,10 +404,10 @@
     <t xml:space="preserve">	2023-12-30 15:16:23</t>
   </si>
   <si>
-    <t>1小时5分42秒</t>
-  </si>
-  <si>
-    <t>183.216.105.170</t>
+    <t xml:space="preserve">1小时5分42秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.216.105.170</t>
   </si>
   <si>
     <t xml:space="preserve">暂时没有	</t>
@@ -397,7 +416,7 @@
     <t xml:space="preserve">研究图片文字认知的反应	</t>
   </si>
   <si>
-    <t>phase_009_subj_2</t>
+    <t xml:space="preserve">phase_009_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	767404514553892865</t>
@@ -409,16 +428,16 @@
     <t xml:space="preserve">	2023-12-29 15:09:58</t>
   </si>
   <si>
-    <t>1小时50秒</t>
-  </si>
-  <si>
-    <t>183.219.49.79</t>
+    <t xml:space="preserve">1小时50秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.219.49.79</t>
   </si>
   <si>
     <t xml:space="preserve">在实验过程中是否能专注，不受干扰	</t>
   </si>
   <si>
-    <t>phase_009_subj_5</t>
+    <t xml:space="preserve">phase_009_subj_5</t>
   </si>
   <si>
     <t xml:space="preserve">	767677115188645890</t>
@@ -430,13 +449,13 @@
     <t xml:space="preserve">	2023-12-30 13:53:30</t>
   </si>
   <si>
-    <t>115.156.141.122</t>
+    <t xml:space="preserve">115.156.141.122</t>
   </si>
   <si>
     <t xml:space="preserve">不太清楚，可能是判断每个人的反应能力。	</t>
   </si>
   <si>
-    <t>phase_009_subj_1</t>
+    <t xml:space="preserve">phase_009_subj_1</t>
   </si>
   <si>
     <t xml:space="preserve">	768791430436229121</t>
@@ -448,16 +467,16 @@
     <t xml:space="preserve">	2023-12-31 13:17:37</t>
   </si>
   <si>
-    <t>1小时13秒</t>
-  </si>
-  <si>
-    <t>110.82.230.68</t>
+    <t xml:space="preserve">1小时13秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.82.230.68</t>
   </si>
   <si>
     <t xml:space="preserve">测试反应灵敏程度	</t>
   </si>
   <si>
-    <t>phase_009_subj_15</t>
+    <t xml:space="preserve">phase_009_subj_15</t>
   </si>
   <si>
     <t xml:space="preserve">	776085809274294274</t>
@@ -469,10 +488,10 @@
     <t xml:space="preserve">	2023-12-30 21:10:14</t>
   </si>
   <si>
-    <t>1小时14分20秒</t>
-  </si>
-  <si>
-    <t>101.30.71.233</t>
+    <t xml:space="preserve">1小时14分20秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.30.71.233</t>
   </si>
   <si>
     <t xml:space="preserve">闪烁的有点太快了，比较费眼睛	</t>
@@ -481,7 +500,7 @@
     <t xml:space="preserve">考验你的专注能力	</t>
   </si>
   <si>
-    <t>phase_009_subj_12</t>
+    <t xml:space="preserve">phase_009_subj_12</t>
   </si>
   <si>
     <t xml:space="preserve">	781469725959131138</t>
@@ -493,16 +512,16 @@
     <t xml:space="preserve">	2023-12-29 21:26:24</t>
   </si>
   <si>
-    <t>1小时16分17秒</t>
-  </si>
-  <si>
-    <t>39.144.177.226</t>
-  </si>
-  <si>
-    <t>词汇分类（自我—他人；积极—消极）</t>
-  </si>
-  <si>
-    <t>A.一周内</t>
+    <t xml:space="preserve">1小时16分17秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.144.177.226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">词汇分类（自我—他人；积极—消极）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一周内</t>
   </si>
   <si>
     <t xml:space="preserve">暂无	</t>
@@ -511,7 +530,7 @@
     <t xml:space="preserve">测试被试者对于相关程度不同的词语、图片的反应速度。	</t>
   </si>
   <si>
-    <t>phase_009_subj_7</t>
+    <t xml:space="preserve">phase_009_subj_7</t>
   </si>
   <si>
     <t xml:space="preserve">	786940746056998913</t>
@@ -523,13 +542,13 @@
     <t xml:space="preserve">	2023-12-29 23:17:01</t>
   </si>
   <si>
-    <t>55分39秒</t>
-  </si>
-  <si>
-    <t>117.61.108.70</t>
-  </si>
-  <si>
-    <t>图形匹配（图形—文字标签）</t>
+    <t xml:space="preserve">55分39秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.61.108.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图形匹配（图形—文字标签）</t>
   </si>
   <si>
     <t xml:space="preserve">其实我觉得还挺有意思的，就是有点累	</t>
@@ -538,7 +557,7 @@
     <t xml:space="preserve">检测不同人的大脑对图像和文字匹配程度?同时还有潜意识里对自己的消极积极的比率?哈哈	</t>
   </si>
   <si>
-    <t>phase_009_subj_22</t>
+    <t xml:space="preserve">phase_009_subj_22</t>
   </si>
   <si>
     <t xml:space="preserve">	787033502335111170</t>
@@ -550,16 +569,16 @@
     <t xml:space="preserve">	2023-12-30 00:46:09</t>
   </si>
   <si>
-    <t>49分31秒</t>
-  </si>
-  <si>
-    <t>223.104.65.77</t>
+    <t xml:space="preserve">49分31秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.104.65.77</t>
   </si>
   <si>
     <t xml:space="preserve">人们对图形的敏感性以及反应能力是否对自身性格有影响	</t>
   </si>
   <si>
-    <t>phase_009_subj_23</t>
+    <t xml:space="preserve">phase_009_subj_23</t>
   </si>
   <si>
     <t xml:space="preserve">	787084202704248834</t>
@@ -571,16 +590,16 @@
     <t xml:space="preserve">	2023-12-30 14:28:59</t>
   </si>
   <si>
-    <t>1小时14分32秒</t>
-  </si>
-  <si>
-    <t>36.60.82.100</t>
+    <t xml:space="preserve">1小时14分32秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.60.82.100</t>
   </si>
   <si>
     <t xml:space="preserve">不知道	</t>
   </si>
   <si>
-    <t>phase_009_subj_14</t>
+    <t xml:space="preserve">phase_009_subj_14</t>
   </si>
   <si>
     <t xml:space="preserve">	789416392486293505</t>
@@ -592,16 +611,16 @@
     <t xml:space="preserve">	2023-12-29 22:12:11</t>
   </si>
   <si>
-    <t>58分39秒</t>
-  </si>
-  <si>
-    <t>124.126.98.185</t>
+    <t xml:space="preserve">58分39秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.126.98.185</t>
   </si>
   <si>
     <t xml:space="preserve">研究人性格对人认知的影响	</t>
   </si>
   <si>
-    <t>phase_009_subj_6</t>
+    <t xml:space="preserve">phase_009_subj_6</t>
   </si>
   <si>
     <t xml:space="preserve">	789938022656385026</t>
@@ -613,10 +632,10 @@
     <t xml:space="preserve">	2023-12-29 21:03:45</t>
   </si>
   <si>
-    <t>1小时8分55秒</t>
-  </si>
-  <si>
-    <t>223.104.145.15</t>
+    <t xml:space="preserve">1小时8分55秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223.104.145.15</t>
   </si>
   <si>
     <t xml:space="preserve">在图形匹配任务介绍页无法显示“继续”按钮，退出全屏后调试了网页显示百分比才正常	</t>
@@ -625,10 +644,10 @@
     <t xml:space="preserve">检测人在短时间内对数据的处理能力	</t>
   </si>
   <si>
-    <t>phase_009_subj_18</t>
-  </si>
-  <si>
-    <t>718762010250051584</t>
+    <t xml:space="preserve">phase_009_subj_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">718762010250051584</t>
   </si>
   <si>
     <t xml:space="preserve">	粥弟</t>
@@ -637,386 +656,44 @@
     <t xml:space="preserve">	2023-12-31 14:22:13</t>
   </si>
   <si>
-    <t>1小时16分52秒</t>
-  </si>
-  <si>
-    <t>112.97.84.117</t>
-  </si>
-  <si>
-    <t>D.三个月内</t>
+    <t xml:space="preserve">1小时16分52秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.97.84.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.三个月内</t>
   </si>
   <si>
     <t xml:space="preserve">增加信心	</t>
   </si>
   <si>
-    <t>phase_009_subj_10</t>
+    <t xml:space="preserve">phase_009_subj_10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1024,526 +701,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1820,21 +988,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1920,14 +1086,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -1981,7 +1147,7 @@
       <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>-999</v>
       </c>
       <c r="V2" t="s">
@@ -2002,18 +1168,18 @@
       <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -2067,7 +1233,7 @@
       <c r="T3" t="s">
         <v>43</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>-999</v>
       </c>
       <c r="V3" t="s">
@@ -2088,18 +1254,18 @@
       <c r="AA3" t="s">
         <v>58</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="s">
@@ -2153,7 +1319,7 @@
       <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>-999</v>
       </c>
       <c r="V4" t="s">
@@ -2174,18 +1340,18 @@
       <c r="AA4" t="s">
         <v>66</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5">
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>22</v>
       </c>
       <c r="D5" t="s">
@@ -2239,7 +1405,7 @@
       <c r="T5" t="s">
         <v>43</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>-999</v>
       </c>
       <c r="V5" t="s">
@@ -2260,18 +1426,18 @@
       <c r="AA5" t="s">
         <v>76</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6">
       <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -2325,7 +1491,7 @@
       <c r="T6" t="s">
         <v>43</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>-999</v>
       </c>
       <c r="V6" t="s">
@@ -2346,19 +1512,19 @@
       <c r="AA6" t="s">
         <v>83</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7">
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>85</v>
@@ -2411,11 +1577,11 @@
       <c r="T7" t="s">
         <v>43</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>-999</v>
       </c>
       <c r="V7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
         <v>89</v>
@@ -2432,19 +1598,19 @@
       <c r="AA7" t="s">
         <v>90</v>
       </c>
-      <c r="AB7">
-        <v>169</v>
+      <c r="AB7" t="n">
+        <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8">
       <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>92</v>
@@ -2497,11 +1663,11 @@
       <c r="T8" t="s">
         <v>43</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>-999</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W8" t="s">
         <v>96</v>
@@ -2518,19 +1684,19 @@
       <c r="AA8" t="s">
         <v>97</v>
       </c>
-      <c r="AB8">
-        <v>523</v>
+      <c r="AB8" t="n">
+        <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9">
       <c r="A9" t="s">
         <v>98</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>99</v>
@@ -2583,11 +1749,11 @@
       <c r="T9" t="s">
         <v>43</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>-999</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s">
         <v>103</v>
@@ -2604,19 +1770,19 @@
       <c r="AA9" t="s">
         <v>104</v>
       </c>
-      <c r="AB9">
-        <v>24</v>
+      <c r="AB9" t="n">
+        <v>523</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10">
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
@@ -2669,14 +1835,14 @@
       <c r="T10" t="s">
         <v>43</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>-999</v>
       </c>
       <c r="V10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" t="s">
         <v>110</v>
-      </c>
-      <c r="W10" t="s">
-        <v>111</v>
       </c>
       <c r="X10" t="s">
         <v>46</v>
@@ -2688,30 +1854,30 @@
         <v>48</v>
       </c>
       <c r="AA10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>112</v>
       </c>
-      <c r="AB10">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" t="s">
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>113</v>
       </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>114</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>115</v>
-      </c>
-      <c r="F11" t="s">
-        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -2720,7 +1886,7 @@
         <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
@@ -2755,11 +1921,11 @@
       <c r="T11" t="s">
         <v>43</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>-999</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="W11" t="s">
         <v>118</v>
@@ -2776,19 +1942,19 @@
       <c r="AA11" t="s">
         <v>119</v>
       </c>
-      <c r="AB11">
-        <v>586</v>
+      <c r="AB11" t="n">
+        <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12">
       <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="B12">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>121</v>
@@ -2841,14 +2007,14 @@
       <c r="T12" t="s">
         <v>43</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>-999</v>
       </c>
       <c r="V12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" t="s">
         <v>125</v>
-      </c>
-      <c r="W12" t="s">
-        <v>126</v>
       </c>
       <c r="X12" t="s">
         <v>46</v>
@@ -2860,30 +2026,30 @@
         <v>48</v>
       </c>
       <c r="AA12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>127</v>
       </c>
-      <c r="AB12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" t="s">
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>128</v>
       </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>129</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>130</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
@@ -2892,7 +2058,7 @@
         <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
@@ -2927,11 +2093,11 @@
       <c r="T13" t="s">
         <v>43</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>-999</v>
       </c>
       <c r="V13" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="W13" t="s">
         <v>133</v>
@@ -2948,19 +2114,19 @@
       <c r="AA13" t="s">
         <v>134</v>
       </c>
-      <c r="AB13">
-        <v>87</v>
+      <c r="AB13" t="n">
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14">
       <c r="A14" t="s">
         <v>135</v>
       </c>
-      <c r="B14">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>18</v>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>136</v>
@@ -2969,7 +2135,7 @@
         <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>32</v>
@@ -2978,7 +2144,7 @@
         <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
         <v>35</v>
@@ -3013,14 +2179,14 @@
       <c r="T14" t="s">
         <v>43</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>-999</v>
       </c>
       <c r="V14" t="s">
         <v>42</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="X14" t="s">
         <v>46</v>
@@ -3032,30 +2198,30 @@
         <v>48</v>
       </c>
       <c r="AA14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB14">
-        <v>11</v>
+        <v>141</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>23</v>
+        <v>142</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -3099,11 +2265,11 @@
       <c r="T15" t="s">
         <v>43</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>-999</v>
       </c>
       <c r="V15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W15" t="s">
         <v>146</v>
@@ -3120,19 +2286,19 @@
       <c r="AA15" t="s">
         <v>147</v>
       </c>
-      <c r="AB15">
-        <v>403</v>
+      <c r="AB15" t="n">
+        <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16">
       <c r="A16" t="s">
         <v>148</v>
       </c>
-      <c r="B16">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -3185,14 +2351,14 @@
       <c r="T16" t="s">
         <v>43</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>-999</v>
       </c>
       <c r="V16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W16" t="s">
         <v>153</v>
-      </c>
-      <c r="W16" t="s">
-        <v>154</v>
       </c>
       <c r="X16" t="s">
         <v>46</v>
@@ -3204,30 +2370,30 @@
         <v>48</v>
       </c>
       <c r="AA16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
         <v>155</v>
       </c>
-      <c r="AB16">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" t="s">
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
         <v>156</v>
       </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>157</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>158</v>
-      </c>
-      <c r="F17" t="s">
-        <v>159</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -3236,16 +2402,16 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
         <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
         <v>37</v>
@@ -3254,10 +2420,10 @@
         <v>37</v>
       </c>
       <c r="O17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="Q17" t="s">
         <v>40</v>
@@ -3271,14 +2437,14 @@
       <c r="T17" t="s">
         <v>43</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>-999</v>
       </c>
       <c r="V17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s">
         <v>46</v>
@@ -3290,30 +2456,30 @@
         <v>48</v>
       </c>
       <c r="AA17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
         <v>165</v>
       </c>
-      <c r="AB17">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" t="s">
+      <c r="F18" t="s">
         <v>166</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" t="s">
-        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -3322,7 +2488,7 @@
         <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
         <v>35</v>
@@ -3331,10 +2497,10 @@
         <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="N18" t="s">
         <v>37</v>
@@ -3343,7 +2509,7 @@
         <v>37</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q18" t="s">
         <v>40</v>
@@ -3357,14 +2523,14 @@
       <c r="T18" t="s">
         <v>43</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>-999</v>
       </c>
       <c r="V18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="X18" t="s">
         <v>46</v>
@@ -3376,30 +2542,30 @@
         <v>48</v>
       </c>
       <c r="AA18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>174</v>
       </c>
-      <c r="AB18">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" t="s">
+      <c r="E19" t="s">
         <v>175</v>
       </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>176</v>
-      </c>
-      <c r="E19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" t="s">
-        <v>178</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -3408,28 +2574,28 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
         <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="N19" t="s">
         <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="Q19" t="s">
         <v>40</v>
@@ -3443,11 +2609,11 @@
       <c r="T19" t="s">
         <v>43</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>-999</v>
       </c>
       <c r="V19" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="W19" t="s">
         <v>180</v>
@@ -3464,19 +2630,19 @@
       <c r="AA19" t="s">
         <v>181</v>
       </c>
-      <c r="AB19">
-        <v>632</v>
+      <c r="AB19" t="n">
+        <v>628</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20">
       <c r="A20" t="s">
         <v>182</v>
       </c>
-      <c r="B20">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>183</v>
@@ -3529,7 +2695,7 @@
       <c r="T20" t="s">
         <v>43</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>-999</v>
       </c>
       <c r="V20" t="s">
@@ -3550,19 +2716,19 @@
       <c r="AA20" t="s">
         <v>188</v>
       </c>
-      <c r="AB20">
-        <v>378</v>
+      <c r="AB20" t="n">
+        <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21">
       <c r="A21" t="s">
         <v>189</v>
       </c>
-      <c r="B21">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>190</v>
@@ -3615,11 +2781,11 @@
       <c r="T21" t="s">
         <v>43</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>-999</v>
       </c>
       <c r="V21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W21" t="s">
         <v>194</v>
@@ -3636,19 +2802,19 @@
       <c r="AA21" t="s">
         <v>195</v>
       </c>
-      <c r="AB21">
-        <v>104</v>
+      <c r="AB21" t="n">
+        <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22">
       <c r="A22" t="s">
         <v>196</v>
       </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13</v>
       </c>
       <c r="D22" t="s">
         <v>197</v>
@@ -3690,25 +2856,25 @@
         <v>39</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="R22" t="s">
         <v>41</v>
       </c>
       <c r="S22" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="T22" t="s">
         <v>43</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>-999</v>
       </c>
       <c r="V22" t="s">
         <v>42</v>
       </c>
       <c r="W22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X22" t="s">
         <v>46</v>
@@ -3720,24 +2886,30 @@
         <v>48</v>
       </c>
       <c r="AA22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>203</v>
       </c>
-      <c r="AB22">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" t="s">
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>204</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>205</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>206</v>
-      </c>
-      <c r="F23" t="s">
-        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -3746,7 +2918,7 @@
         <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
         <v>35</v>
@@ -3767,28 +2939,28 @@
         <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="Q23" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
         <v>41</v>
       </c>
       <c r="S23" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="T23" t="s">
         <v>43</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>-999</v>
       </c>
       <c r="V23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s">
         <v>46</v>
@@ -3800,15 +2972,96 @@
         <v>48</v>
       </c>
       <c r="AA23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>211</v>
       </c>
-      <c r="AB23">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-999</v>
+      </c>
+      <c r="V24" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" t="s">
+        <v>217</v>
+      </c>
+      <c r="X24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB24" t="n">
         <v>235</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>